--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1008222.868173534</v>
+        <v>1005662.68401367</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673443</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>20.75054951475536</v>
       </c>
       <c r="X2" t="n">
-        <v>343.6990775316569</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>148.1776514406537</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>74.15117661083455</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>399.8071423251172</v>
+        <v>223.392207948002</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>52.98423339032972</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>78.86261552750632</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>114.5059581839112</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>84.99484790497493</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>98.14085706275775</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1345,13 +1345,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>76.89801764146411</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>252.0419470990459</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>28.1174966230041</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238038</v>
+        <v>22.60777203238024</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114108</v>
+        <v>97.975526991141</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.75316679403528</v>
+        <v>9.753166794035209</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>136.9633383119507</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>136.6856111842618</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146338</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076762</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337144</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>319.4395745411795</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.17400867573028</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119207</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.733841663481</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.831980181936</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>107.4021082756251</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>4.019807611472247</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D25" t="n">
-        <v>4.019807611472247</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819361</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740322</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>113.7076464771378</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>36.43062059490498</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>78.14939830226164</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,13 +3430,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756246</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>109.1623230749908</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.246821098625</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763394</v>
       </c>
       <c r="E43" t="n">
-        <v>98.03921036659565</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000783</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.3110907974333</v>
+        <v>859.685290191162</v>
       </c>
       <c r="C2" t="n">
-        <v>944.3110907974333</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974333</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,7 +4358,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4367,13 +4367,13 @@
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1623.290380428054</v>
       </c>
       <c r="X2" t="n">
-        <v>944.3110907974333</v>
+        <v>1249.824622166974</v>
       </c>
       <c r="Y2" t="n">
-        <v>944.3110907974333</v>
+        <v>859.685290191162</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100999</v>
+        <v>790.7764984014359</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1154.038517360656</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>758.6984582168179</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C4" t="n">
-        <v>589.762275288911</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>589.762275288911</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>589.762275288911</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>442.8723277910007</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>274.8858630992793</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>126.1469649627855</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253779</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>1048.115628253779</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>758.6984582168179</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X4" t="n">
-        <v>758.6984582168179</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="Y4" t="n">
-        <v>758.6984582168179</v>
+        <v>349.6600800990966</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1283.162304328173</v>
+        <v>1112.520734025444</v>
       </c>
       <c r="C5" t="n">
-        <v>914.1997873877617</v>
+        <v>1112.520734025444</v>
       </c>
       <c r="D5" t="n">
-        <v>914.1997873877617</v>
+        <v>754.255035418694</v>
       </c>
       <c r="E5" t="n">
-        <v>528.4115347895174</v>
+        <v>754.255035418694</v>
       </c>
       <c r="F5" t="n">
-        <v>521.466034040314</v>
+        <v>343.2691306290864</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4565,13 +4565,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2022.530799662409</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>1669.762144392295</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X5" t="n">
-        <v>1669.762144392295</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="Y5" t="n">
-        <v>1669.762144392295</v>
+        <v>1112.520734025444</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4644,19 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.0883979303312</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C7" t="n">
-        <v>325.0883979303312</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D7" t="n">
-        <v>325.0883979303312</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1386.297944567358</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1097.179607071196</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>842.4951188653092</v>
+        <v>1034.596277341134</v>
       </c>
       <c r="W7" t="n">
-        <v>553.0779488283486</v>
+        <v>745.1791073041734</v>
       </c>
       <c r="X7" t="n">
-        <v>325.0883979303312</v>
+        <v>517.189556406156</v>
       </c>
       <c r="Y7" t="n">
-        <v>325.0883979303312</v>
+        <v>517.189556406156</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>918.0161179218651</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="C8" t="n">
-        <v>918.0161179218651</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>559.7504193151146</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182945</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218651</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="Y8" t="n">
-        <v>918.0161179218651</v>
+        <v>1768.949738926588</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>597.1475965504962</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="C10" t="n">
-        <v>597.1475965504962</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D10" t="n">
-        <v>447.0309571381605</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>299.1178635557674</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>299.1178635557674</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>825.1371474485136</v>
+        <v>1139.164126134685</v>
       </c>
       <c r="V10" t="n">
-        <v>825.1371474485136</v>
+        <v>884.4796379287984</v>
       </c>
       <c r="W10" t="n">
-        <v>825.1371474485136</v>
+        <v>595.0624678918377</v>
       </c>
       <c r="X10" t="n">
-        <v>597.1475965504962</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="Y10" t="n">
-        <v>597.1475965504962</v>
+        <v>367.0729169938204</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1908.724590950427</v>
+        <v>1535.258832689352</v>
       </c>
       <c r="C11" t="n">
-        <v>1539.762074010015</v>
+        <v>1166.296315748941</v>
       </c>
       <c r="D11" t="n">
-        <v>1181.496375403265</v>
+        <v>808.0306171421903</v>
       </c>
       <c r="E11" t="n">
-        <v>926.9085500506931</v>
+        <v>422.2423645439462</v>
       </c>
       <c r="F11" t="n">
-        <v>515.9226452610856</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="G11" t="n">
-        <v>101.3471995907326</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907326</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469186</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420319</v>
+        <v>704.5155104420337</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301224</v>
+        <v>1232.419981301227</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878109</v>
+        <v>1851.484858878112</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765423</v>
+        <v>2485.180661765427</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.2263776871</v>
+        <v>3070.226377687104</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856281</v>
+        <v>3535.048359856286</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882238</v>
+        <v>3835.937563882243</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234589</v>
+        <v>3925.553311234593</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455659</v>
+        <v>3826.588132455663</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971438</v>
+        <v>3622.786021971443</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604045</v>
+        <v>3369.295305604051</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260474</v>
+        <v>3038.23241826048</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.46376299036</v>
+        <v>2685.463762990365</v>
       </c>
       <c r="X11" t="n">
-        <v>2685.46376299036</v>
+        <v>2311.998004729286</v>
       </c>
       <c r="Y11" t="n">
-        <v>2295.324431014548</v>
+        <v>1921.858672753474</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503044</v>
+        <v>88.36274985503046</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469186</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469177</v>
+        <v>196.8120623792129</v>
       </c>
       <c r="K12" t="n">
-        <v>78.51106622469177</v>
+        <v>477.1621322376504</v>
       </c>
       <c r="L12" t="n">
-        <v>501.798873652001</v>
+        <v>900.4499396649601</v>
       </c>
       <c r="M12" t="n">
-        <v>1015.11264789589</v>
+        <v>1337.658805224961</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279346</v>
+        <v>1878.967112576028</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>511.6609136807027</v>
+        <v>385.5135230760953</v>
       </c>
       <c r="C13" t="n">
-        <v>373.3141073049953</v>
+        <v>216.5773401481885</v>
       </c>
       <c r="D13" t="n">
-        <v>373.3141073049953</v>
+        <v>78.51106622469186</v>
       </c>
       <c r="E13" t="n">
-        <v>225.4010137226021</v>
+        <v>78.51106622469186</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469186</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469186</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469186</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469186</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>139.08183346004</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457698</v>
+        <v>368.4550473457704</v>
       </c>
       <c r="L13" t="n">
-        <v>717.500225288891</v>
+        <v>717.5002252888917</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.90854877922</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542992</v>
+        <v>1470.753784542994</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715847</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082519</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551103</v>
+        <v>2155.909043551105</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551103</v>
+        <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906986</v>
+        <v>1888.302075370156</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457032</v>
+        <v>1667.488017920202</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.20361589732</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691433</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544725</v>
+        <v>834.2956531176428</v>
       </c>
       <c r="X13" t="n">
-        <v>914.1019576544725</v>
+        <v>606.3061022196255</v>
       </c>
       <c r="Y13" t="n">
-        <v>693.3093785109423</v>
+        <v>385.5135230760953</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5267,61 +5267,61 @@
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126174</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608056</v>
+        <v>106.3138404733493</v>
       </c>
       <c r="L15" t="n">
-        <v>561.2235631333346</v>
+        <v>106.3138404733493</v>
       </c>
       <c r="M15" t="n">
-        <v>1153.241917385462</v>
+        <v>698.3321947254768</v>
       </c>
       <c r="N15" t="n">
-        <v>1775.337880784798</v>
+        <v>1320.428158124813</v>
       </c>
       <c r="O15" t="n">
-        <v>2322.214355784993</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1015.754398433617</v>
+        <v>494.0589900220728</v>
       </c>
       <c r="C16" t="n">
-        <v>846.8182155057104</v>
+        <v>325.1228070941659</v>
       </c>
       <c r="D16" t="n">
-        <v>696.7015760933747</v>
+        <v>175.00616768183</v>
       </c>
       <c r="E16" t="n">
-        <v>548.7884825109816</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130712</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156341</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861974</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.1842911693316</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020527</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.51642936867</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.51642936867</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2360.51642936867</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>2071.440215683397</v>
+        <v>1668.591243136707</v>
       </c>
       <c r="V16" t="n">
-        <v>1816.75572747751</v>
+        <v>1413.90675493082</v>
       </c>
       <c r="W16" t="n">
-        <v>1527.338557440549</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1299.349006542532</v>
+        <v>896.5000339958426</v>
       </c>
       <c r="Y16" t="n">
-        <v>1078.556427399002</v>
+        <v>675.7074548523125</v>
       </c>
     </row>
     <row r="17">
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5601,16 +5601,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524073</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868271</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662384</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625424</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727406</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583876</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="20">
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597624</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597624</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>265.0731740618521</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>97.87707477673189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6148,49 +6148,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>984.5467179762951</v>
+        <v>513.8536007400687</v>
       </c>
       <c r="C28" t="n">
-        <v>815.6105350483882</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>665.4938956360525</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>517.5808020536595</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6394,40 +6394,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806535</v>
+        <v>916.294644713837</v>
       </c>
       <c r="Y28" t="n">
-        <v>1166.195182806535</v>
+        <v>695.5020655703069</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327647</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048579</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925222</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297711</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,16 +6777,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>945.4026036630045</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>776.4664207350976</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536376</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257307</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133949</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310019</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330918</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7105,40 +7105,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868272</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662385</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727407</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7263,16 +7263,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356193</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232835</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,16 +7442,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.5007694647275</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C43" t="n">
-        <v>631.5645865368235</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D43" t="n">
-        <v>481.4479471244878</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036841</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057737</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579362</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373475</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438497</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949672</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="44">
@@ -7637,34 +7637,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232835</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>73.6605958099982</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>186.5911984019044</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,22 +8292,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>45.76488231024575</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>60.50016306149558</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-3.824271744423714e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-3.367239230969981e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-1.773338340300088e-13</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>129.8884229732159</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>378.7585491187073</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>30.28348278667718</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>11.92986183395058</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034042</v>
+        <v>89.71507747034038</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146345</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729315</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>50.29152613728951</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>117.657971506207</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.06136363537711</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>110.0033420516632</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182129</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>136.2749052347516</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D25" t="n">
-        <v>144.5956654067401</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.4467738245956</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>31.71340154579345</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856634</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>110.0033420516642</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.26526345294997</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>70.46607471595071</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516637</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25600,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>142.9753202488372</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>44.73700564187295</v>
       </c>
       <c r="E43" t="n">
-        <v>48.39475227997352</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891659</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>890566.7264417687</v>
+        <v>890566.7264417694</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>969315.1656157607</v>
+        <v>969315.1656157604</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>974675.3592781309</v>
+        <v>974675.3592781308</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>974675.3592781309</v>
+        <v>974675.3592781308</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>974675.3592781309</v>
+        <v>974675.3592781308</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>974675.3592781309</v>
+        <v>974675.3592781307</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>974675.3592781309</v>
+        <v>974675.3592781307</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>974675.3592781309</v>
+        <v>974675.3592781308</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>974675.3592781309</v>
+        <v>974675.3592781308</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>974675.3592781309</v>
+        <v>974675.3592781308</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>974675.3592781309</v>
+        <v>974675.3592781308</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>974675.3592781309</v>
+        <v>974675.3592781308</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253558</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253558</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253558</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795039</v>
+        <v>405380.8397795043</v>
       </c>
       <c r="F2" t="n">
-        <v>441473.8744009171</v>
+        <v>441473.874400917</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="H2" t="n">
         <v>443930.6298295035</v>
       </c>
       <c r="I2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="J2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="K2" t="n">
         <v>443930.6298295034</v>
@@ -26344,16 +26344,16 @@
         <v>443930.6298295034</v>
       </c>
       <c r="M2" t="n">
+        <v>443930.6298295032</v>
+      </c>
+      <c r="N2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="O2" t="n">
         <v>443930.6298295035</v>
       </c>
-      <c r="N2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="O2" t="n">
-        <v>443930.6298295036</v>
-      </c>
       <c r="P2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357057</v>
+        <v>325187.1190357068</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051389</v>
+        <v>166521.3471051373</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557934</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456803</v>
+        <v>84929.59434456832</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848937</v>
+        <v>43782.4065584889</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224429</v>
+        <v>3023.297977224802</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>131909.726831625</v>
+      </c>
+      <c r="C4" t="n">
         <v>131909.7268316249</v>
-      </c>
-      <c r="C4" t="n">
-        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
         <v>131909.726831625</v>
@@ -26430,31 +26430,31 @@
         <v>6890.891875482008</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707328</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670734</v>
+        <v>6897.424496707369</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670735</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707365</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26476,7 +26476,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214705</v>
+        <v>86093.72216214714</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-888026.3094220338</v>
+        <v>-888026.3094220334</v>
       </c>
       <c r="C6" t="n">
-        <v>226725.4741538864</v>
+        <v>226725.4741538863</v>
       </c>
       <c r="D6" t="n">
-        <v>226725.4741538861</v>
+        <v>226725.4741538863</v>
       </c>
       <c r="E6" t="n">
-        <v>-12698.30495775018</v>
+        <v>-12908.26920159569</v>
       </c>
       <c r="F6" t="n">
-        <v>167919.5069064577</v>
+        <v>167873.6019108938</v>
       </c>
       <c r="G6" t="n">
-        <v>324743.4392733102</v>
+        <v>324708.701347874</v>
       </c>
       <c r="H6" t="n">
-        <v>335910.675508889</v>
+        <v>335875.9375834533</v>
       </c>
       <c r="I6" t="n">
-        <v>335910.6755088888</v>
+        <v>335875.9375834533</v>
       </c>
       <c r="J6" t="n">
-        <v>168305.4976989065</v>
+        <v>168270.7597734706</v>
       </c>
       <c r="K6" t="n">
-        <v>335910.675508889</v>
+        <v>335875.9375834533</v>
       </c>
       <c r="L6" t="n">
-        <v>335910.675508889</v>
+        <v>335875.9375834533</v>
       </c>
       <c r="M6" t="n">
-        <v>250981.081164321</v>
+        <v>250946.3432388846</v>
       </c>
       <c r="N6" t="n">
-        <v>292128.2689503997</v>
+        <v>292093.5310249642</v>
       </c>
       <c r="O6" t="n">
-        <v>332887.3775316647</v>
+        <v>332852.6396062286</v>
       </c>
       <c r="P6" t="n">
-        <v>335910.6755088891</v>
+        <v>335875.9375834533</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26744,10 +26744,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494555</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26793,13 +26793,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086472</v>
+        <v>981.3883278086482</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,19 +26966,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770161</v>
+        <v>278.105375377017</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218306</v>
+        <v>145.8707812218292</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086084</v>
+        <v>340.8034957086095</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173597</v>
+        <v>178.7569625173578</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086084</v>
+        <v>340.8034957086095</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173597</v>
+        <v>178.7569625173578</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086084</v>
+        <v>340.8034957086095</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173597</v>
+        <v>178.7569625173578</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>328.4904192026577</v>
       </c>
       <c r="X2" t="n">
-        <v>26.03202314681209</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>31.65432874128362</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>30.64541859306601</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>11.7405604478368</v>
+        <v>188.155494824952</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>167.7644626068822</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>173.2750277963217</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>268.2278834795694</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>296.9355221672869</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,22 +28011,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>68.16574298204644</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>209.3291364797365</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.485114291904672e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.181262495227505e-12</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.599932293805868e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30618,7 +30618,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>2.813749233609997e-12</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485646</v>
+        <v>4.873046301485649</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508988</v>
+        <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380255</v>
+        <v>187.8681175380257</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307177</v>
+        <v>413.593713530718</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726052</v>
+        <v>619.8697634726057</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216967</v>
+        <v>769.0032542216973</v>
       </c>
       <c r="M11" t="n">
-        <v>855.664291385742</v>
+        <v>855.6642913857426</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898381</v>
+        <v>869.5098341898388</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294402</v>
+        <v>821.0534800294408</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615132</v>
+        <v>700.7501494615137</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895583</v>
+        <v>526.2341787895588</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356979</v>
+        <v>306.1064947356982</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475342</v>
+        <v>21.33176018475344</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188516</v>
+        <v>0.3898437041188518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969421</v>
+        <v>2.607309631969423</v>
       </c>
       <c r="H12" t="n">
-        <v>25.1811219719152</v>
+        <v>25.18112197191522</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596472</v>
+        <v>89.76921320596479</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783041</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202555</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256411</v>
+        <v>566.1178216256416</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845325</v>
+        <v>583.7591506492922</v>
       </c>
       <c r="N12" t="n">
-        <v>656.2170074201579</v>
+        <v>678.117780114714</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431805</v>
+        <v>620.345287743181</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205467</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071844</v>
+        <v>332.8207874071846</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697583</v>
+        <v>48.42963285697586</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190409</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236083</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737173</v>
+        <v>19.43446756737175</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691787</v>
+        <v>65.73539745691791</v>
       </c>
       <c r="J13" t="n">
-        <v>154.541773283691</v>
+        <v>154.5417732836912</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509173</v>
+        <v>324.9808615509176</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263707</v>
+        <v>342.6467528263709</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973092</v>
+        <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050057</v>
+        <v>308.964316705006</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761894</v>
+        <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916778</v>
+        <v>183.037710391678</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570603</v>
+        <v>98.2851498857061</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929609</v>
+        <v>38.09394102929612</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826897</v>
+        <v>9.339672552826904</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765138</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>150.4305144013754</v>
       </c>
       <c r="L15" t="n">
-        <v>611.6977534235651</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32321,10 +32321,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32333,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
+        <v>371.3409564478483</v>
+      </c>
+      <c r="M3" t="n">
+        <v>366.9313322820404</v>
+      </c>
+      <c r="N3" t="n">
+        <v>391.1970995928739</v>
+      </c>
+      <c r="O3" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="M3" t="n">
-        <v>366.9313322820406</v>
-      </c>
-      <c r="N3" t="n">
-        <v>391.197099592874</v>
-      </c>
-      <c r="O3" t="n">
-        <v>522.0158803980274</v>
-      </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>381.1895643063687</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
@@ -35252,16 +35252,16 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>451.6972626543695</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35270,7 +35270,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040314</v>
+        <v>232.5478090040317</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276247</v>
+        <v>399.7799124276251</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517094</v>
+        <v>533.2368392517101</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584693</v>
+        <v>625.3180581584699</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932471</v>
+        <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077534</v>
+        <v>590.9552686077541</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062436</v>
+        <v>469.5171537062442</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151088</v>
+        <v>303.9284889151093</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156581</v>
+        <v>90.52095692156604</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458965</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457669</v>
+        <v>427.5634418457674</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625141</v>
+        <v>441.6251167272739</v>
       </c>
       <c r="N12" t="n">
-        <v>524.8752953368246</v>
+        <v>546.7760680313808</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987361</v>
+        <v>477.7490432987365</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062165</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211628</v>
+        <v>192.8390133211631</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.2024045893657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701827</v>
+        <v>61.18259316701841</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360911</v>
+        <v>231.6901150360913</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112334</v>
+        <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882113</v>
+        <v>382.2306297882115</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765377</v>
+        <v>378.6315512765381</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190454</v>
+        <v>333.5494446190456</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410829</v>
+        <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998343</v>
+        <v>96.87566713998358</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>12.5890754270164</v>
       </c>
       <c r="L15" t="n">
-        <v>473.1433736436909</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970737</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
